--- a/biology/Zoologie/Diuca_gris/Diuca_gris.xlsx
+++ b/biology/Zoologie/Diuca_gris/Diuca_gris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Diuca diuca
 Le Diuca gris (Diuca diuca) est une espèce de passereaux placée dans la famille des Thraupidae.
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau est répandu à travers le cône Sud.
 </t>
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il habite les zones de broussailles sèches jusqu'à des altitudes élevées et les forêts primaires fortement dégradées.
 </t>
@@ -574,9 +590,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Peterson, il existe quatre sous-espèces[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Peterson, il existe quatre sous-espèces :
 Diuca diuca chiloensis Philippi B &amp; Pena 1964 - Plus petits que les autres, les specimens de cette sous-espèce ne se trouvent que sur l'île de Chiloé. Ils sont aussi appelés diuca de Chiloé.
 Diuca diuca crassirostris Hellmayr 1932 - Il se trouve dans les régions andines du nord du Chili et de l'Argentine. Il est également appelé diuca du nord.
 Diuca diuca diuca (Molina) 1782
